--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btla-Cd79a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btla-Cd79a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Btla</t>
+  </si>
+  <si>
+    <t>Cd79a</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Btla</t>
-  </si>
-  <si>
-    <t>Cd79a</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.020124666666667</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="H2">
-        <v>3.060374</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="I2">
-        <v>0.8343329110379932</v>
+        <v>0.9278633407583023</v>
       </c>
       <c r="J2">
-        <v>0.8343329110379931</v>
+        <v>0.9278633407583025</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9689896666666667</v>
+        <v>0.1627963333333333</v>
       </c>
       <c r="N2">
-        <v>2.906969</v>
+        <v>0.488389</v>
       </c>
       <c r="O2">
-        <v>0.3053952688967308</v>
+        <v>0.1322196205449661</v>
       </c>
       <c r="P2">
-        <v>0.3053952688967307</v>
+        <v>0.1322196205449661</v>
       </c>
       <c r="Q2">
-        <v>0.988490260711778</v>
+        <v>0.05058847219433333</v>
       </c>
       <c r="R2">
-        <v>8.896412346406002</v>
+        <v>0.455296249749</v>
       </c>
       <c r="S2">
-        <v>0.2548013237158401</v>
+        <v>0.1226817388326473</v>
       </c>
       <c r="T2">
-        <v>0.25480132371584</v>
+        <v>0.1226817388326473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.020124666666667</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="H3">
-        <v>3.060374</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="I3">
-        <v>0.8343329110379932</v>
+        <v>0.9278633407583023</v>
       </c>
       <c r="J3">
-        <v>0.8343329110379931</v>
+        <v>0.9278633407583025</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>2.307401</v>
       </c>
       <c r="O3">
-        <v>0.2424069017755557</v>
+        <v>0.6246735382350449</v>
       </c>
       <c r="P3">
-        <v>0.2424069017755557</v>
+        <v>0.6246735382350449</v>
       </c>
       <c r="Q3">
-        <v>0.7846122253304446</v>
+        <v>0.2390059795156666</v>
       </c>
       <c r="R3">
-        <v>7.061510027974001</v>
+        <v>2.151053815641</v>
       </c>
       <c r="S3">
-        <v>0.2022480560141003</v>
+        <v>0.5796116760700779</v>
       </c>
       <c r="T3">
-        <v>0.2022480560141003</v>
+        <v>0.5796116760700779</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.020124666666667</v>
+        <v>0.3107469999999999</v>
       </c>
       <c r="H4">
-        <v>3.060374</v>
+        <v>0.9322409999999999</v>
       </c>
       <c r="I4">
-        <v>0.8343329110379932</v>
+        <v>0.9278633407583023</v>
       </c>
       <c r="J4">
-        <v>0.8343329110379931</v>
+        <v>0.9278633407583025</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43478</v>
+        <v>0.299327</v>
       </c>
       <c r="N4">
-        <v>4.30434</v>
+        <v>0.8979809999999999</v>
       </c>
       <c r="O4">
-        <v>0.4521978293277135</v>
+        <v>0.243106841219989</v>
       </c>
       <c r="P4">
-        <v>0.4521978293277135</v>
+        <v>0.243106841219989</v>
       </c>
       <c r="Q4">
-        <v>1.46365446924</v>
+        <v>0.09301496726899997</v>
       </c>
       <c r="R4">
-        <v>13.17289022316</v>
+        <v>0.8371347054209998</v>
       </c>
       <c r="S4">
-        <v>0.3772835313080529</v>
+        <v>0.2255699258555771</v>
       </c>
       <c r="T4">
-        <v>0.3772835313080528</v>
+        <v>0.2255699258555772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +726,10 @@
         <v>0.072477</v>
       </c>
       <c r="I5">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="J5">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9689896666666667</v>
+        <v>0.1627963333333333</v>
       </c>
       <c r="N5">
-        <v>2.906969</v>
+        <v>0.488389</v>
       </c>
       <c r="O5">
-        <v>0.3053952688967308</v>
+        <v>0.1322196205449661</v>
       </c>
       <c r="P5">
-        <v>0.3053952688967307</v>
+        <v>0.1322196205449661</v>
       </c>
       <c r="Q5">
-        <v>0.023409821357</v>
+        <v>0.003932996617</v>
       </c>
       <c r="R5">
-        <v>0.210688392213</v>
+        <v>0.035396969553</v>
       </c>
       <c r="S5">
-        <v>0.00603430676739279</v>
+        <v>0.009537881712318791</v>
       </c>
       <c r="T5">
-        <v>0.006034306767392788</v>
+        <v>0.009537881712318791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +788,10 @@
         <v>0.072477</v>
       </c>
       <c r="I6">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="J6">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>2.307401</v>
       </c>
       <c r="O6">
-        <v>0.2424069017755557</v>
+        <v>0.6246735382350449</v>
       </c>
       <c r="P6">
-        <v>0.2424069017755557</v>
+        <v>0.6246735382350449</v>
       </c>
       <c r="Q6">
         <v>0.018581500253</v>
@@ -818,10 +818,10 @@
         <v>0.167233502277</v>
       </c>
       <c r="S6">
-        <v>0.004789719281281943</v>
+        <v>0.04506186216496704</v>
       </c>
       <c r="T6">
-        <v>0.004789719281281943</v>
+        <v>0.04506186216496704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,10 +850,10 @@
         <v>0.072477</v>
       </c>
       <c r="I7">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="J7">
-        <v>0.01975900540041858</v>
+        <v>0.07213665924169768</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.43478</v>
+        <v>0.299327</v>
       </c>
       <c r="N7">
-        <v>4.30434</v>
+        <v>0.8979809999999999</v>
       </c>
       <c r="O7">
-        <v>0.4521978293277135</v>
+        <v>0.243106841219989</v>
       </c>
       <c r="P7">
-        <v>0.4521978293277135</v>
+        <v>0.243106841219989</v>
       </c>
       <c r="Q7">
-        <v>0.03466285002</v>
+        <v>0.007231440992999999</v>
       </c>
       <c r="R7">
-        <v>0.31196565018</v>
+        <v>0.065082968937</v>
       </c>
       <c r="S7">
-        <v>0.008934979351743852</v>
+        <v>0.01753691536441185</v>
       </c>
       <c r="T7">
-        <v>0.008934979351743852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.1783993333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.5351980000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="J8">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.9689896666666667</v>
-      </c>
-      <c r="N8">
-        <v>2.906969</v>
-      </c>
-      <c r="O8">
-        <v>0.3053952688967308</v>
-      </c>
-      <c r="P8">
-        <v>0.3053952688967307</v>
-      </c>
-      <c r="Q8">
-        <v>0.1728671105402222</v>
-      </c>
-      <c r="R8">
-        <v>1.555803994862</v>
-      </c>
-      <c r="S8">
-        <v>0.04455963841349789</v>
-      </c>
-      <c r="T8">
-        <v>0.04455963841349788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.1783993333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.5351980000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="J9">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.7691336666666667</v>
-      </c>
-      <c r="N9">
-        <v>2.307401</v>
-      </c>
-      <c r="O9">
-        <v>0.2424069017755557</v>
-      </c>
-      <c r="P9">
-        <v>0.2424069017755557</v>
-      </c>
-      <c r="Q9">
-        <v>0.1372129333775556</v>
-      </c>
-      <c r="R9">
-        <v>1.234916400398</v>
-      </c>
-      <c r="S9">
-        <v>0.03536912648017349</v>
-      </c>
-      <c r="T9">
-        <v>0.03536912648017349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1783993333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.5351980000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="J10">
-        <v>0.1459080835615882</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.43478</v>
-      </c>
-      <c r="N10">
-        <v>4.30434</v>
-      </c>
-      <c r="O10">
-        <v>0.4521978293277135</v>
-      </c>
-      <c r="P10">
-        <v>0.4521978293277135</v>
-      </c>
-      <c r="Q10">
-        <v>0.25596379548</v>
-      </c>
-      <c r="R10">
-        <v>2.30367415932</v>
-      </c>
-      <c r="S10">
-        <v>0.06597931866791681</v>
-      </c>
-      <c r="T10">
-        <v>0.06597931866791681</v>
+        <v>0.01753691536441185</v>
       </c>
     </row>
   </sheetData>
